--- a/Appendix/2. Project Management/2.3 Sprint Backlogs/2.3.1 Sprint_Backlog_1.xlsx
+++ b/Appendix/2. Project Management/2.3 Sprint Backlogs/2.3.1 Sprint_Backlog_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\SprintBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\Appendix\2. Project Management\2.3 Sprint Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -234,7 +234,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="38">
     <dxf>
       <fill>
         <patternFill>
@@ -309,90 +309,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -596,8 +512,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="49"/>
-      <tableStyleElement type="headerRow" dxfId="48"/>
+      <tableStyleElement type="wholeTable" dxfId="37"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -906,13 +822,14 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="86.77734375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -1569,149 +1486,149 @@
         <v>72</v>
       </c>
       <c r="D21">
-        <f>SUM(D5:D17)</f>
+        <f t="shared" ref="D21:K21" si="0">SUM(D5:D17)</f>
         <v>70</v>
       </c>
       <c r="E21">
-        <f>SUM(E5:E17)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="F21">
-        <f>SUM(F5:F17)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="G21">
-        <f>SUM(G5:G17)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="H21">
-        <f>SUM(H5:H17)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="I21">
-        <f>SUM(I5:I17)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J21">
-        <f>SUM(J5:J17)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K21">
-        <f>SUM(K5:K17)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="L21">
-        <f>SUM(L5:L20)</f>
+        <f t="shared" ref="L21:R21" si="1">SUM(L5:L20)</f>
         <v>45</v>
       </c>
       <c r="M21">
-        <f>SUM(M5:M20)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="N21">
-        <f>SUM(N5:N20)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="O21">
-        <f>SUM(O5:O20)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="P21">
-        <f>SUM(P5:P20)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="Q21">
-        <f>SUM(Q5:Q20)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="R21">
-        <f>SUM(R5:R20)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="containsText" dxfId="47" priority="102" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="35" priority="102" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="103" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="34" priority="103" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="104" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="33" priority="104" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="cellIs" dxfId="44" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="101" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="43" priority="50" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="31" priority="50" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="51" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="30" priority="51" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="52" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="29" priority="52" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="49" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="39" priority="46" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="27" priority="46" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="47" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="48" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="25" priority="48" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="45" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="35" priority="42" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="23" priority="42" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="43" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="22" priority="43" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="44" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="21" priority="44" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="32" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="41" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="30" priority="38" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="18" priority="38" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="39" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="40" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="16" priority="40" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
